--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H2">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I2">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J2">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="N2">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="O2">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="P2">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="Q2">
-        <v>0.1147191700124051</v>
+        <v>0.1453459801933334</v>
       </c>
       <c r="R2">
-        <v>0.1147191700124051</v>
+        <v>1.30811382174</v>
       </c>
       <c r="S2">
-        <v>0.006137037459617783</v>
+        <v>0.006539043842419931</v>
       </c>
       <c r="T2">
-        <v>0.006137037459617783</v>
+        <v>0.01076566658189823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H3">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I3">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J3">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57619955629736</v>
+        <v>0.03558433333333334</v>
       </c>
       <c r="N3">
-        <v>1.57619955629736</v>
+        <v>0.106753</v>
       </c>
       <c r="O3">
-        <v>0.9877820029073566</v>
+        <v>0.02061027878600664</v>
       </c>
       <c r="P3">
-        <v>0.9877820029073566</v>
+        <v>0.03000431993852589</v>
       </c>
       <c r="Q3">
-        <v>9.274640570585271</v>
+        <v>0.2197128210645556</v>
       </c>
       <c r="R3">
-        <v>9.274640570585271</v>
+        <v>1.977415389581</v>
       </c>
       <c r="S3">
-        <v>0.4961578487712015</v>
+        <v>0.009884771273150027</v>
       </c>
       <c r="T3">
-        <v>0.4961578487712015</v>
+        <v>0.01627396211579414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.20185509552028</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H4">
-        <v>2.20185509552028</v>
+        <v>18.523277</v>
       </c>
       <c r="I4">
-        <v>0.1879583414932692</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J4">
-        <v>0.1879583414932692</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0194962061867745</v>
+        <v>0.04573</v>
       </c>
       <c r="N4">
-        <v>0.0194962061867745</v>
+        <v>0.13719</v>
       </c>
       <c r="O4">
-        <v>0.01221799709264337</v>
+        <v>0.02648660128195227</v>
       </c>
       <c r="P4">
-        <v>0.01221799709264337</v>
+        <v>0.03855903489706489</v>
       </c>
       <c r="Q4">
-        <v>0.04292782093566344</v>
+        <v>0.2823564857366667</v>
       </c>
       <c r="R4">
-        <v>0.04292782093566344</v>
+        <v>2.54120837163</v>
       </c>
       <c r="S4">
-        <v>0.002296474469902833</v>
+        <v>0.01270307879837993</v>
       </c>
       <c r="T4">
-        <v>0.002296474469902833</v>
+        <v>0.02091393087469015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.20185509552028</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H5">
-        <v>2.20185509552028</v>
+        <v>18.523277</v>
       </c>
       <c r="I5">
-        <v>0.1879583414932692</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J5">
-        <v>0.1879583414932692</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.57619955629736</v>
+        <v>1.621679</v>
       </c>
       <c r="N5">
-        <v>1.57619955629736</v>
+        <v>3.243358</v>
       </c>
       <c r="O5">
-        <v>0.9877820029073566</v>
+        <v>0.9392688624604216</v>
       </c>
       <c r="P5">
-        <v>0.9877820029073566</v>
+        <v>0.9115879751124322</v>
       </c>
       <c r="Q5">
-        <v>3.470563024590147</v>
+        <v>10.01293644069433</v>
       </c>
       <c r="R5">
-        <v>3.470563024590147</v>
+        <v>60.077618644166</v>
       </c>
       <c r="S5">
-        <v>0.1856618670233664</v>
+        <v>0.4504770636929359</v>
       </c>
       <c r="T5">
-        <v>0.1856618670233664</v>
+        <v>0.4944337416274751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.62855675059837</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H6">
-        <v>3.62855675059837</v>
+        <v>6.686821</v>
       </c>
       <c r="I6">
-        <v>0.3097467722759116</v>
+        <v>0.1731349056329954</v>
       </c>
       <c r="J6">
-        <v>0.3097467722759116</v>
+        <v>0.1957994147469982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.0194962061867745</v>
+        <v>0.02354</v>
       </c>
       <c r="N6">
-        <v>0.0194962061867745</v>
+        <v>0.07062</v>
       </c>
       <c r="O6">
-        <v>0.01221799709264337</v>
+        <v>0.01363425747161943</v>
       </c>
       <c r="P6">
-        <v>0.01221799709264337</v>
+        <v>0.01984867005197698</v>
       </c>
       <c r="Q6">
-        <v>0.07074309057007831</v>
+        <v>0.05246925544666668</v>
       </c>
       <c r="R6">
-        <v>0.07074309057007831</v>
+        <v>0.47222329902</v>
       </c>
       <c r="S6">
-        <v>0.003784485163122756</v>
+        <v>0.002360565880724792</v>
       </c>
       <c r="T6">
-        <v>0.003784485163122756</v>
+        <v>0.003886357979683364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H7">
+        <v>6.686821</v>
+      </c>
+      <c r="I7">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J7">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.106753</v>
+      </c>
+      <c r="O7">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="P7">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="Q7">
+        <v>0.07931535580144446</v>
+      </c>
+      <c r="R7">
+        <v>0.713838202213</v>
+      </c>
+      <c r="S7">
+        <v>0.003568358672684986</v>
+      </c>
+      <c r="T7">
+        <v>0.005874828283845061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H8">
+        <v>6.686821</v>
+      </c>
+      <c r="I8">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J8">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04573</v>
+      </c>
+      <c r="N8">
+        <v>0.13719</v>
+      </c>
+      <c r="O8">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="P8">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="Q8">
+        <v>0.1019294414433333</v>
+      </c>
+      <c r="R8">
+        <v>0.9173649729900001</v>
+      </c>
+      <c r="S8">
+        <v>0.004585755213489581</v>
+      </c>
+      <c r="T8">
+        <v>0.007549836466054387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="H7">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="I7">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="J7">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="N7">
-        <v>1.57619955629736</v>
-      </c>
-      <c r="O7">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="P7">
-        <v>0.9877820029073566</v>
-      </c>
-      <c r="Q7">
-        <v>5.719329540292941</v>
-      </c>
-      <c r="R7">
-        <v>5.719329540292941</v>
-      </c>
-      <c r="S7">
-        <v>0.3059622871127888</v>
-      </c>
-      <c r="T7">
-        <v>0.3059622871127888</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.228940333333334</v>
+      </c>
+      <c r="H9">
+        <v>6.686821</v>
+      </c>
+      <c r="I9">
+        <v>0.1731349056329954</v>
+      </c>
+      <c r="J9">
+        <v>0.1957994147469982</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.621679</v>
+      </c>
+      <c r="N9">
+        <v>3.243358</v>
+      </c>
+      <c r="O9">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="P9">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="Q9">
+        <v>3.614625730819667</v>
+      </c>
+      <c r="R9">
+        <v>21.687754384918</v>
+      </c>
+      <c r="S9">
+        <v>0.162620225866096</v>
+      </c>
+      <c r="T9">
+        <v>0.1784883920174154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.470643</v>
+      </c>
+      <c r="H10">
+        <v>8.941286</v>
+      </c>
+      <c r="I10">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J10">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02354</v>
+      </c>
+      <c r="N10">
+        <v>0.07062</v>
+      </c>
+      <c r="O10">
+        <v>0.01363425747161943</v>
+      </c>
+      <c r="P10">
+        <v>0.01984867005197698</v>
+      </c>
+      <c r="Q10">
+        <v>0.10523893622</v>
+      </c>
+      <c r="R10">
+        <v>0.63143361732</v>
+      </c>
+      <c r="S10">
+        <v>0.004734647748474706</v>
+      </c>
+      <c r="T10">
+        <v>0.005196645490395383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.470643</v>
+      </c>
+      <c r="H11">
+        <v>8.941286</v>
+      </c>
+      <c r="I11">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J11">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.03558433333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.106753</v>
+      </c>
+      <c r="O11">
+        <v>0.02061027878600664</v>
+      </c>
+      <c r="P11">
+        <v>0.03000431993852589</v>
+      </c>
+      <c r="Q11">
+        <v>0.1590848507263334</v>
+      </c>
+      <c r="R11">
+        <v>0.954509104358</v>
+      </c>
+      <c r="S11">
+        <v>0.007157148840171627</v>
+      </c>
+      <c r="T11">
+        <v>0.007855529538886694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.470643</v>
+      </c>
+      <c r="H12">
+        <v>8.941286</v>
+      </c>
+      <c r="I12">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J12">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04573</v>
+      </c>
+      <c r="N12">
+        <v>0.13719</v>
+      </c>
+      <c r="O12">
+        <v>0.02648660128195227</v>
+      </c>
+      <c r="P12">
+        <v>0.03855903489706489</v>
+      </c>
+      <c r="Q12">
+        <v>0.20444250439</v>
+      </c>
+      <c r="R12">
+        <v>1.22665502634</v>
+      </c>
+      <c r="S12">
+        <v>0.009197767270082766</v>
+      </c>
+      <c r="T12">
+        <v>0.01009526755632034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.470643</v>
+      </c>
+      <c r="H13">
+        <v>8.941286</v>
+      </c>
+      <c r="I13">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J13">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.621679</v>
+      </c>
+      <c r="N13">
+        <v>3.243358</v>
+      </c>
+      <c r="O13">
+        <v>0.9392688624604216</v>
+      </c>
+      <c r="P13">
+        <v>0.9115879751124322</v>
+      </c>
+      <c r="Q13">
+        <v>7.249947869597</v>
+      </c>
+      <c r="R13">
+        <v>28.999791478388</v>
+      </c>
+      <c r="S13">
+        <v>0.3261715729013897</v>
+      </c>
+      <c r="T13">
+        <v>0.2386658414675416</v>
       </c>
     </row>
   </sheetData>
